--- a/slot_test.xlsx
+++ b/slot_test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvaiya/Desktop/scripts/footpatrol/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarvaiya/Documents/GitHub/footpatrol/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEA0467-069E-5343-9F76-67853E3BB87D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE36253-E56E-2B45-98CD-46C6A9A614BA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,31 +72,31 @@
     <t>CA</t>
   </si>
   <si>
-    <t>kishan123@loveshoes.club</t>
-  </si>
-  <si>
-    <t>kishan</t>
-  </si>
-  <si>
-    <t>1111 bob avenue</t>
-  </si>
-  <si>
     <t>tester</t>
   </si>
   <si>
     <t>los angeles</t>
   </si>
   <si>
-    <t>4767 7182 6919 5899</t>
-  </si>
-  <si>
-    <t>kishan tester</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>970</t>
+    <t>4767 7182 6484 3071</t>
+  </si>
+  <si>
+    <t>07</t>
+  </si>
+  <si>
+    <t>707</t>
+  </si>
+  <si>
+    <t>kish</t>
+  </si>
+  <si>
+    <t>kish tester</t>
+  </si>
+  <si>
+    <t>11787 bellflower blvd</t>
+  </si>
+  <si>
+    <t>kishan1213@loveshoes.club</t>
   </si>
 </sst>
 </file>
@@ -463,7 +463,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,19 +522,19 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>5624516767</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
         <v>14</v>
@@ -543,22 +543,22 @@
         <v>90001</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J2" t="s">
         <v>21</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L2">
         <v>2025</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
